--- a/TUNSPEKT_m3c2_stats_clouds.xlsx
+++ b/TUNSPEKT_m3c2_stats_clouds.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="138">
   <si>
     <t>Timestamp</t>
   </si>
@@ -392,25 +392,60 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>Mavic hat die dichteste Flächenabdeckung</t>
+    <t>Altone hat die beste Überlappung/Abdeckung zur FARO-Referenz, Mavic die schwächste.</t>
   </si>
   <si>
-    <t>Mavic (kleinste Abstände) → bestätigt höchste effektive Dichte/Homogenität.</t>
+    <t>All consistent (~154 m)</t>
   </si>
   <si>
-    <t>Mavic hat die stabilste Höhenlage (weniger Relief-/Rauschanteil).</t>
+    <t>Mavic shows the lowest vertical variation (0.286 m), while Faro/Altone/Handheld are higher (~0.34–0.36 m). → Mavic has the cleanest vertical geometry.</t>
   </si>
   <si>
-    <t>Mavic am glattesten; Altone am rauesten.</t>
+    <t>Smallest for Mavic (0.0043 m) → points are most closely spaced.</t>
   </si>
   <si>
-    <t>Alle ~80–84°, also überwiegend vertikale Flächen.</t>
+    <t>Faro slightly higher than Mavic, but both clearly denser than Altone and Handheld. 
+→ Faro &amp; Mavic give the most compact sampling.</t>
   </si>
   <si>
-    <t>Mavic hat die stabilsten Normalen 0.75°</t>
+    <t>Mavic ROI shows by far the lowest roughness (mean/median ~0.018 m).
+Faro, Altone, and Handheld are rougher (~0.028–0.036 m).
+→ Indicates smoother, less noisy surfaces for the scan.</t>
   </si>
   <si>
-    <t>Altone hat die beste Überlappung/Abdeckung zur FARO-Referenz, Mavic die schwächste.</t>
+    <t>Mavic has the highest (mean 0.68), Handheld the lowest (0.56). 
+→ Mavic points align along straight structures best.</t>
+  </si>
+  <si>
+    <t>Highest in Handheld (0.43) and Altone (0.40), lowest in Mavic (0.32). 
+→ Handheld preserves flat planes best, but with more roughness noise.</t>
+  </si>
+  <si>
+    <t>Very low across all (as expected for flat/linear surfaces).
+ Mavic again lowest → strong directional structure.</t>
+  </si>
+  <si>
+    <t>All near 0.99 → highly directional point neighborhoods, consistent across devices.</t>
+  </si>
+  <si>
+    <t>Lower for Mavic, higher for Altone/Handheld.
+→ Mavic clouds are more ordered and less random in local structure.</t>
+  </si>
+  <si>
+    <t>Lowest in Mavic (~0.0023–0.0029), highest in Altone/Faro.
+→ Again indicates smoother surface reconstruction in Mavic scan.</t>
+  </si>
+  <si>
+    <t>Mavic has the most vertical orientation (mean ~83.5° vs ~79–81° in others).</t>
+  </si>
+  <si>
+    <t>Faro worst (2.55°), Mavic best (0.75°). Altone/Handheld intermediate (~1.9–2°).
+→ Mavic delivers the most stable surface normals.</t>
+  </si>
+  <si>
+    <t>- Faro and Mavic deliver the highest point counts and densities (~5–5.5 million pts/m²).
+- Altone and especially Handheld have lower densities, which may affect fine detail capture.
+- XY area: Similar ROI sizes (1.2–1.5 m²), so density differences are not due to area.</t>
   </si>
 </sst>
 </file>
@@ -418,9 +453,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -459,6 +494,20 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -499,7 +548,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="38">
+  <borders count="41">
     <border>
       <left/>
       <right/>
@@ -994,12 +1043,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="120">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1007,7 +1091,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1032,7 +1116,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1041,38 +1125,26 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1089,17 +1161,8 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1120,127 +1183,31 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1260,16 +1227,16 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1280,6 +1247,192 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2409,858 +2562,874 @@
   <dimension ref="A1:F16383"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="11.7109375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.140625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="71" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.5703125" style="101" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="11.7109375" style="99" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.140625" style="99" customWidth="1"/>
+    <col min="6" max="6" width="74.42578125" style="100" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+    <row r="1" spans="1:6" s="111" customFormat="1" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="113" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="80" t="s">
+      <c r="C1" s="114" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="80" t="s">
+      <c r="D1" s="114" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="81" t="s">
+      <c r="E1" s="115" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="82" t="s">
+      <c r="F1" s="116" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="64">
+      <c r="B2" s="117">
         <v>7750609</v>
       </c>
-      <c r="C2" s="64">
+      <c r="C2" s="117">
         <v>7011667</v>
       </c>
-      <c r="D2" s="64">
+      <c r="D2" s="117">
         <v>5617833</v>
       </c>
-      <c r="E2" s="65">
+      <c r="E2" s="118">
         <v>3302202</v>
       </c>
-      <c r="F2" s="76"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="47" t="s">
+      <c r="F2" s="119" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="64" t="s">
+      <c r="D3" s="69" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="65" t="s">
+      <c r="E3" s="70" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="76"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="47" t="s">
+      <c r="F3" s="72"/>
+    </row>
+    <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="53">
+      <c r="B4" s="73">
         <v>1.52456609875</v>
       </c>
-      <c r="C4" s="53">
+      <c r="C4" s="73">
         <v>1.2835563049999981</v>
       </c>
-      <c r="D4" s="53">
+      <c r="D4" s="73">
         <v>1.428105285000018</v>
       </c>
-      <c r="E4" s="54">
+      <c r="E4" s="74">
         <v>1.2179395699999971</v>
       </c>
-      <c r="F4" s="76"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="75" t="s">
+      <c r="F4" s="72"/>
+    </row>
+    <row r="5" spans="1:6" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="57">
+      <c r="B5" s="90">
         <v>5083813.0313633271</v>
       </c>
-      <c r="C5" s="57">
+      <c r="C5" s="90">
         <v>5462687.5133459838</v>
       </c>
-      <c r="D5" s="57">
+      <c r="D5" s="90">
         <v>3933766.690037793</v>
       </c>
-      <c r="E5" s="58">
+      <c r="E5" s="91">
         <v>2711302.00655194</v>
       </c>
-      <c r="F5" s="76" t="s">
-        <v>123</v>
-      </c>
+      <c r="F5" s="77"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="45">
+      <c r="B6" s="78">
         <v>153.67128090379691</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="78">
         <v>153.66900000000001</v>
       </c>
-      <c r="D6" s="45">
+      <c r="D6" s="78">
         <v>153.654</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E6" s="79">
         <v>153.66720000000001</v>
       </c>
-      <c r="F6" s="76"/>
+      <c r="F6" s="71" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="48">
+      <c r="B7" s="73">
         <v>155.11459090379691</v>
       </c>
-      <c r="C7" s="48">
+      <c r="C7" s="73">
         <v>155.45930000000001</v>
       </c>
-      <c r="D7" s="48">
+      <c r="D7" s="73">
         <v>155.13059999999999</v>
       </c>
-      <c r="E7" s="49">
+      <c r="E7" s="74">
         <v>155.12049999999999</v>
       </c>
-      <c r="F7" s="76"/>
+      <c r="F7" s="72"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="47" t="s">
+      <c r="A8" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="48">
+      <c r="B8" s="73">
         <v>154.59176836295529</v>
       </c>
-      <c r="C8" s="48">
+      <c r="C8" s="73">
         <v>154.6461149776508</v>
       </c>
-      <c r="D8" s="48">
+      <c r="D8" s="73">
         <v>154.5613639161399</v>
       </c>
-      <c r="E8" s="49">
+      <c r="E8" s="74">
         <v>154.5529318971704</v>
       </c>
-      <c r="F8" s="76"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="47" t="s">
+      <c r="F8" s="72"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="48">
+      <c r="B9" s="73">
         <v>154.6709609037969</v>
       </c>
-      <c r="C9" s="48">
+      <c r="C9" s="73">
         <v>154.6943</v>
       </c>
-      <c r="D9" s="48">
+      <c r="D9" s="73">
         <v>154.63560000000001</v>
       </c>
-      <c r="E9" s="49">
+      <c r="E9" s="74">
         <v>154.6412</v>
       </c>
-      <c r="F9" s="76"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="47" t="s">
+      <c r="F9" s="72"/>
+    </row>
+    <row r="10" spans="1:6" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="48">
+      <c r="B10" s="92">
         <v>0.34065654767330278</v>
       </c>
-      <c r="C10" s="48">
+      <c r="C10" s="92">
         <v>0.28576953480063971</v>
       </c>
-      <c r="D10" s="48">
+      <c r="D10" s="92">
         <v>0.34602228086306119</v>
       </c>
-      <c r="E10" s="49">
+      <c r="E10" s="93">
         <v>0.3610684268787186</v>
       </c>
-      <c r="F10" s="76" t="s">
+      <c r="F10" s="82" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="48">
+      <c r="B11" s="80">
         <v>153.93564090379689</v>
       </c>
-      <c r="C11" s="48">
+      <c r="C11" s="80">
         <v>154.0659</v>
       </c>
-      <c r="D11" s="48">
+      <c r="D11" s="80">
         <v>153.92930000000001</v>
       </c>
-      <c r="E11" s="49">
+      <c r="E11" s="81">
         <v>153.84219999999999</v>
       </c>
-      <c r="F11" s="76"/>
+      <c r="F11" s="83"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="47" t="s">
+      <c r="A12" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="48">
+      <c r="B12" s="80">
         <v>154.42981090379689</v>
       </c>
-      <c r="C12" s="48">
+      <c r="C12" s="80">
         <v>154.53809999999999</v>
       </c>
-      <c r="D12" s="48">
+      <c r="D12" s="80">
         <v>154.34039999999999</v>
       </c>
-      <c r="E12" s="49">
+      <c r="E12" s="81">
         <v>154.30760000000001</v>
       </c>
-      <c r="F12" s="76"/>
+      <c r="F12" s="83"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="47" t="s">
+      <c r="A13" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="48">
+      <c r="B13" s="80">
         <v>154.84016090379691</v>
       </c>
-      <c r="C13" s="48">
+      <c r="C13" s="80">
         <v>154.8492</v>
       </c>
-      <c r="D13" s="48">
+      <c r="D13" s="80">
         <v>154.81379999999999</v>
       </c>
-      <c r="E13" s="49">
+      <c r="E13" s="81">
         <v>154.81950000000001</v>
       </c>
-      <c r="F13" s="76"/>
+      <c r="F13" s="83"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="48">
+      <c r="B14" s="80">
         <v>155.0285009037969</v>
       </c>
-      <c r="C14" s="48">
+      <c r="C14" s="80">
         <v>155.03639999999999</v>
       </c>
-      <c r="D14" s="48">
+      <c r="D14" s="80">
         <v>155.01900000000001</v>
       </c>
-      <c r="E14" s="49">
+      <c r="E14" s="81">
         <v>155.02369999999999</v>
       </c>
-      <c r="F14" s="76"/>
+      <c r="F14" s="83"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="45">
+      <c r="B15" s="105">
         <v>4.8575428163005344E-3</v>
       </c>
-      <c r="C15" s="45">
+      <c r="C15" s="84">
         <v>4.2828752340996383E-3</v>
       </c>
-      <c r="D15" s="45">
+      <c r="D15" s="84">
         <v>4.5368229389338302E-3</v>
       </c>
-      <c r="E15" s="46">
+      <c r="E15" s="85">
         <v>4.5763484271842732E-3</v>
       </c>
-      <c r="F15" s="76"/>
+      <c r="F15" s="106" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="50" t="s">
+      <c r="A16" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="51">
+      <c r="B16" s="107">
         <v>6.6119382871232674E-3</v>
       </c>
-      <c r="C16" s="51">
+      <c r="C16" s="86">
         <v>5.8998080969450461E-3</v>
       </c>
-      <c r="D16" s="51">
+      <c r="D16" s="86">
         <v>6.3019825061449977E-3</v>
       </c>
-      <c r="E16" s="52">
+      <c r="E16" s="87">
         <v>6.3131301472497516E-3</v>
       </c>
-      <c r="F16" s="76" t="s">
-        <v>124</v>
-      </c>
+      <c r="F16" s="103"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="44" t="s">
+      <c r="A17" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="55">
+      <c r="B17" s="88">
         <v>13690.657506425399</v>
       </c>
-      <c r="C17" s="55">
+      <c r="C17" s="88">
         <v>13270.656657972861</v>
       </c>
-      <c r="D17" s="55">
+      <c r="D17" s="88">
         <v>12204.79739987529</v>
       </c>
-      <c r="E17" s="56">
+      <c r="E17" s="89">
         <v>12448.195581726221</v>
       </c>
-      <c r="F17" s="76"/>
+      <c r="F17" s="71" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="47" t="s">
+      <c r="A18" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="57">
+      <c r="B18" s="75">
         <v>14255.786773891479</v>
       </c>
-      <c r="C18" s="57">
+      <c r="C18" s="75">
         <v>13776.531451506011</v>
       </c>
-      <c r="D18" s="57">
+      <c r="D18" s="75">
         <v>12632.52572056146</v>
       </c>
-      <c r="E18" s="58">
+      <c r="E18" s="76">
         <v>13134.57998854485</v>
       </c>
-      <c r="F18" s="76"/>
+      <c r="F18" s="58"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="47" t="s">
+      <c r="A19" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="57">
+      <c r="B19" s="75">
         <v>7052.6329932311592</v>
       </c>
-      <c r="C19" s="57">
+      <c r="C19" s="75">
         <v>7944.2866252827707</v>
       </c>
-      <c r="D19" s="57">
+      <c r="D19" s="75">
         <v>5875.9209214812308</v>
       </c>
-      <c r="E19" s="58">
+      <c r="E19" s="76">
         <v>6651.5625366395834</v>
       </c>
-      <c r="F19" s="76"/>
+      <c r="F19" s="58"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="59">
+      <c r="B20" s="90">
         <v>18732.628316008359</v>
       </c>
-      <c r="C20" s="59">
+      <c r="C20" s="90">
         <v>17660.946570078351</v>
       </c>
-      <c r="D20" s="59">
+      <c r="D20" s="90">
         <v>16792.43804562588</v>
       </c>
-      <c r="E20" s="60">
+      <c r="E20" s="91">
         <v>17340.340873840461</v>
       </c>
-      <c r="F20" s="76"/>
+      <c r="F20" s="103"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="44" t="s">
+      <c r="A21" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="45">
+      <c r="B21" s="84">
         <v>2.8622761520929178E-2</v>
       </c>
-      <c r="C21" s="45">
+      <c r="C21" s="84">
         <v>1.8787290063061429E-2</v>
       </c>
-      <c r="D21" s="45">
+      <c r="D21" s="84">
         <v>3.1704813346823943E-2</v>
       </c>
-      <c r="E21" s="46">
+      <c r="E21" s="85">
         <v>2.7477965854899922E-2</v>
       </c>
-      <c r="F21" s="76"/>
+      <c r="F21" s="71" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="48">
+      <c r="B22" s="80">
         <v>3.2222800362327761E-2</v>
       </c>
-      <c r="C22" s="48">
+      <c r="C22" s="80">
         <v>1.8423466195629439E-2</v>
       </c>
-      <c r="D22" s="48">
+      <c r="D22" s="80">
         <v>3.6153200065910072E-2</v>
       </c>
-      <c r="E22" s="49">
+      <c r="E22" s="81">
         <v>3.2308992156867847E-2</v>
       </c>
-      <c r="F22" s="76" t="s">
-        <v>126</v>
-      </c>
+      <c r="F22" s="72"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="47" t="s">
+      <c r="A23" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="48">
+      <c r="B23" s="80">
         <v>1.179432066142521E-2</v>
       </c>
-      <c r="C23" s="48">
+      <c r="C23" s="80">
         <v>9.2390723391021327E-3</v>
       </c>
-      <c r="D23" s="48">
+      <c r="D23" s="80">
         <v>1.1453603299484749E-2</v>
       </c>
-      <c r="E23" s="49">
+      <c r="E23" s="81">
         <v>1.053503032049837E-2</v>
       </c>
-      <c r="F23" s="76"/>
+      <c r="F23" s="72"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="50" t="s">
+      <c r="A24" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="51">
+      <c r="B24" s="86">
         <v>3.7629658058720372E-2</v>
       </c>
-      <c r="C24" s="51">
+      <c r="C24" s="86">
         <v>2.7219028113498651E-2</v>
       </c>
-      <c r="D24" s="51">
+      <c r="D24" s="86">
         <v>4.4697017319564721E-2</v>
       </c>
-      <c r="E24" s="52">
+      <c r="E24" s="87">
         <v>3.7436165268018233E-2</v>
       </c>
-      <c r="F24" s="76"/>
+      <c r="F24" s="77"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="45">
+      <c r="B25" s="84">
         <v>0.6017213244970413</v>
       </c>
-      <c r="C25" s="45">
+      <c r="C25" s="84">
         <v>0.67893522912877058</v>
       </c>
-      <c r="D25" s="45">
+      <c r="D25" s="84">
         <v>0.58617726367760292</v>
       </c>
-      <c r="E25" s="46">
+      <c r="E25" s="85">
         <v>0.56304638137999019</v>
       </c>
-      <c r="F25" s="76"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="47" t="s">
+      <c r="F25" s="71" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="48">
+      <c r="B26" s="86">
         <v>0.69490653695972182</v>
       </c>
-      <c r="C26" s="48">
+      <c r="C26" s="86">
         <v>0.75361721613099253</v>
       </c>
-      <c r="D26" s="48">
+      <c r="D26" s="86">
         <v>0.61782022580824014</v>
       </c>
-      <c r="E26" s="49">
+      <c r="E26" s="87">
         <v>0.57194641769187182</v>
       </c>
-      <c r="F26" s="76"/>
+      <c r="F26" s="103"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="48">
+      <c r="B27" s="84">
         <v>0.38573861287956118</v>
       </c>
-      <c r="C27" s="48">
+      <c r="C27" s="84">
         <v>0.3170600051051265</v>
       </c>
-      <c r="D27" s="48">
+      <c r="D27" s="84">
         <v>0.400762490721913</v>
       </c>
-      <c r="E27" s="49">
+      <c r="E27" s="85">
         <v>0.42605562547343018</v>
       </c>
-      <c r="F27" s="76"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="47" t="s">
+      <c r="F27" s="71" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="48">
+      <c r="B28" s="86">
         <v>0.29570187771252848</v>
       </c>
-      <c r="C28" s="48">
+      <c r="C28" s="86">
         <v>0.243234814692421</v>
       </c>
-      <c r="D28" s="48">
+      <c r="D28" s="86">
         <v>0.36450363837426969</v>
       </c>
-      <c r="E28" s="49">
+      <c r="E28" s="87">
         <v>0.41544045410096903</v>
       </c>
-      <c r="F28" s="76"/>
+      <c r="F28" s="103"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="47" t="s">
+      <c r="A29" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="48">
+      <c r="B29" s="84">
         <v>1.2540062623397481E-2</v>
       </c>
-      <c r="C29" s="48">
+      <c r="C29" s="84">
         <v>4.0047657661029324E-3</v>
       </c>
-      <c r="D29" s="48">
+      <c r="D29" s="84">
         <v>1.3060245600484121E-2</v>
       </c>
-      <c r="E29" s="49">
+      <c r="E29" s="85">
         <v>1.089799314657957E-2</v>
       </c>
-      <c r="F29" s="76"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="47" t="s">
+      <c r="F29" s="71" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="48">
+      <c r="B30" s="86">
         <v>9.5753481282721178E-3</v>
       </c>
-      <c r="C30" s="48">
+      <c r="C30" s="86">
         <v>2.897602221197137E-3</v>
       </c>
-      <c r="D30" s="48">
+      <c r="D30" s="86">
         <v>1.038613452215233E-2</v>
       </c>
-      <c r="E30" s="49">
+      <c r="E30" s="87">
         <v>9.0938469996227657E-3</v>
       </c>
-      <c r="F30" s="76"/>
+      <c r="F30" s="103"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="47" t="s">
+      <c r="A31" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="48">
+      <c r="B31" s="84">
         <v>0.98745993737660265</v>
       </c>
-      <c r="C31" s="48">
+      <c r="C31" s="84">
         <v>0.99599523423389702</v>
       </c>
-      <c r="D31" s="48">
+      <c r="D31" s="84">
         <v>0.98693975439951598</v>
       </c>
-      <c r="E31" s="49">
+      <c r="E31" s="85">
         <v>0.98910200685342042</v>
       </c>
-      <c r="F31" s="76"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="47" t="s">
+      <c r="F31" s="106" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="B32" s="48">
+      <c r="B32" s="86">
         <v>0.9904246518717279</v>
       </c>
-      <c r="C32" s="48">
+      <c r="C32" s="86">
         <v>0.99710239777880294</v>
       </c>
-      <c r="D32" s="48">
+      <c r="D32" s="86">
         <v>0.98961386547784769</v>
       </c>
-      <c r="E32" s="49">
+      <c r="E32" s="87">
         <v>0.99090615300037721</v>
       </c>
-      <c r="F32" s="76"/>
+      <c r="F32" s="103"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="47" t="s">
+      <c r="A33" s="35" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="48">
+      <c r="B33" s="84">
         <v>2.923722138996095E-2</v>
       </c>
-      <c r="C33" s="48">
+      <c r="C33" s="84">
         <v>1.9733769774526261E-2</v>
       </c>
-      <c r="D33" s="48">
+      <c r="D33" s="84">
         <v>3.0490080756627159E-2</v>
       </c>
-      <c r="E33" s="49">
+      <c r="E33" s="85">
         <v>2.9221494236713601E-2</v>
       </c>
-      <c r="F33" s="76"/>
+      <c r="F33" s="71" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="47" t="s">
+      <c r="A34" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="B34" s="48">
+      <c r="B34" s="80">
         <v>3.2237963946718837E-2</v>
       </c>
-      <c r="C34" s="48">
+      <c r="C34" s="80">
         <v>2.031370775753865E-2</v>
       </c>
-      <c r="D34" s="48">
+      <c r="D34" s="80">
         <v>3.2035311344887282E-2</v>
       </c>
-      <c r="E34" s="49">
+      <c r="E34" s="81">
         <v>3.1605354012615723E-2</v>
       </c>
-      <c r="F34" s="76"/>
+      <c r="F34" s="72"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="47" t="s">
+      <c r="A35" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="B35" s="48">
+      <c r="B35" s="80">
         <v>0.58468936639834657</v>
       </c>
-      <c r="C35" s="48">
+      <c r="C35" s="80">
         <v>0.53217328415184462</v>
       </c>
-      <c r="D35" s="48">
+      <c r="D35" s="80">
         <v>0.59580447491121458</v>
       </c>
-      <c r="E35" s="49">
+      <c r="E35" s="81">
         <v>0.60446097956636524</v>
       </c>
-      <c r="F35" s="76"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="47" t="s">
+      <c r="F35" s="72"/>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="B36" s="48">
+      <c r="B36" s="86">
         <v>0.58972541466335049</v>
       </c>
-      <c r="C36" s="48">
+      <c r="C36" s="86">
         <v>0.51357992768195848</v>
       </c>
-      <c r="D36" s="48">
+      <c r="D36" s="86">
         <v>0.63586375757884506</v>
       </c>
-      <c r="E36" s="49">
+      <c r="E36" s="87">
         <v>0.6478772108913643</v>
       </c>
-      <c r="F36" s="76"/>
+      <c r="F36" s="77"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="47" t="s">
+      <c r="A37" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="48">
+      <c r="B37" s="84">
         <v>8.1838818017724996E-3</v>
       </c>
-      <c r="C37" s="48">
+      <c r="C37" s="84">
         <v>2.871717959412328E-3</v>
       </c>
-      <c r="D37" s="48">
+      <c r="D37" s="84">
         <v>8.497129719293145E-3</v>
       </c>
-      <c r="E37" s="49">
+      <c r="E37" s="85">
         <v>7.0109392563274062E-3</v>
       </c>
-      <c r="F37" s="76"/>
+      <c r="F37" s="68" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="50" t="s">
+      <c r="A38" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="51">
+      <c r="B38" s="86">
         <v>7.1408884004555747E-3</v>
       </c>
-      <c r="C38" s="51">
+      <c r="C38" s="86">
         <v>2.2917665699160178E-3</v>
       </c>
-      <c r="D38" s="51">
+      <c r="D38" s="86">
         <v>7.4274790731907944E-3</v>
       </c>
-      <c r="E38" s="52">
+      <c r="E38" s="87">
         <v>6.3740486955277216E-3</v>
       </c>
-      <c r="F38" s="76"/>
+      <c r="F38" s="102"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="44" t="s">
+      <c r="A39" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="45">
+      <c r="B39" s="80">
         <v>79.174120975967853</v>
       </c>
-      <c r="C39" s="45">
+      <c r="C39" s="80">
         <v>83.534916123034179</v>
       </c>
-      <c r="D39" s="45">
+      <c r="D39" s="80">
         <v>81.331253415532174</v>
       </c>
-      <c r="E39" s="46">
+      <c r="E39" s="81">
         <v>79.930090566318924</v>
       </c>
-      <c r="F39" s="83" t="s">
-        <v>127</v>
+      <c r="F39" s="58" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="47" t="s">
+      <c r="A40" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="B40" s="48">
+      <c r="B40" s="80">
         <v>77.960708617719803</v>
       </c>
-      <c r="C40" s="48">
+      <c r="C40" s="80">
         <v>83.282979816818454</v>
       </c>
-      <c r="D40" s="48">
+      <c r="D40" s="80">
         <v>81.333307602150455</v>
       </c>
-      <c r="E40" s="49">
+      <c r="E40" s="81">
         <v>79.502376071759329</v>
       </c>
-      <c r="F40" s="83"/>
+      <c r="F40" s="58"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="47" t="s">
+      <c r="A41" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="B41" s="48">
+      <c r="B41" s="80">
         <v>71.971782547207084</v>
       </c>
-      <c r="C41" s="48">
+      <c r="C41" s="80">
         <v>82.204239871495048</v>
       </c>
-      <c r="D41" s="48">
+      <c r="D41" s="80">
         <v>76.836625187610039</v>
       </c>
-      <c r="E41" s="49">
+      <c r="E41" s="81">
         <v>74.12915490424848</v>
       </c>
-      <c r="F41" s="83"/>
+      <c r="F41" s="58"/>
     </row>
     <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="50" t="s">
+      <c r="A42" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="51">
+      <c r="B42" s="80">
         <v>87.210251105365757</v>
       </c>
-      <c r="C42" s="51">
+      <c r="C42" s="80">
         <v>85.924008997179101</v>
       </c>
-      <c r="D42" s="51">
+      <c r="D42" s="80">
         <v>86.340908151662703</v>
       </c>
-      <c r="E42" s="52">
+      <c r="E42" s="81">
         <v>85.472627963391716</v>
       </c>
-      <c r="F42" s="83"/>
-    </row>
-    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="61" t="s">
+      <c r="F42" s="58"/>
+    </row>
+    <row r="43" spans="1:6" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="62">
+      <c r="B43" s="92">
         <v>2.5453213937201431</v>
       </c>
-      <c r="C43" s="62">
+      <c r="C43" s="92">
         <v>0.75076771134549225</v>
       </c>
-      <c r="D43" s="62">
+      <c r="D43" s="92">
         <v>1.8848918150779039</v>
       </c>
-      <c r="E43" s="63">
+      <c r="E43" s="93">
         <v>1.9969869232216451</v>
       </c>
-      <c r="F43" s="76" t="s">
-        <v>128</v>
+      <c r="F43" s="110" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="66" t="s">
+      <c r="A44" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="67">
+      <c r="B44" s="94">
         <v>1</v>
       </c>
-      <c r="C44" s="67">
+      <c r="C44" s="94">
         <v>1</v>
       </c>
-      <c r="D44" s="67">
+      <c r="D44" s="94">
         <v>1</v>
       </c>
-      <c r="E44" s="68">
+      <c r="E44" s="95">
         <v>1</v>
       </c>
-      <c r="F44" s="76"/>
+      <c r="F44" s="83"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="69" t="s">
+      <c r="A45" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="B45" s="70">
+      <c r="B45" s="94">
         <v>6</v>
       </c>
-      <c r="C45" s="70">
+      <c r="C45" s="94">
         <v>6</v>
       </c>
-      <c r="D45" s="70">
+      <c r="D45" s="94">
         <v>6</v>
       </c>
-      <c r="E45" s="71">
+      <c r="E45" s="95">
         <v>6</v>
       </c>
-      <c r="F45" s="76"/>
+      <c r="F45" s="83"/>
     </row>
     <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="72" t="s">
+      <c r="A46" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="B46" s="73">
+      <c r="B46" s="96">
         <v>100000</v>
       </c>
-      <c r="C46" s="73">
+      <c r="C46" s="96">
         <v>100000</v>
       </c>
-      <c r="D46" s="73">
+      <c r="D46" s="96">
         <v>100000</v>
       </c>
-      <c r="E46" s="74">
+      <c r="E46" s="97">
         <v>100000</v>
       </c>
-      <c r="F46" s="77"/>
+      <c r="F46" s="98"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
@@ -52274,11 +52443,22 @@
       <c r="A16383" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="12">
     <mergeCell ref="F39:F42"/>
+    <mergeCell ref="F2:F5"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="F17:F20"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="F33:F36"/>
+    <mergeCell ref="F37:F38"/>
   </mergeCells>
   <conditionalFormatting sqref="B2:E2">
-    <cfRule type="colorScale" priority="18">
+    <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -52290,7 +52470,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:E5">
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -52302,7 +52482,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:E16">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -52314,7 +52494,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B10:E10">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -52326,7 +52506,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:E22">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -52338,7 +52518,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43:E43">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -52349,7 +52529,224 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B15:E15">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21:E21">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:E23">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24:E24">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25:E25">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26:E26">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27:E27">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:E28">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29:E29">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30:E30">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33:E33">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34:E34">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35:E35">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36:E36">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B37:E37">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38:E38">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B39:E39">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40:E40">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -52357,8 +52754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52373,94 +52770,94 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1"/>
-      <c r="B1" s="84" t="s">
+      <c r="B1" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="85" t="s">
+      <c r="C1" s="46" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="85" t="s">
+      <c r="D1" s="46" t="s">
         <v>119</v>
       </c>
-      <c r="E1" s="86" t="s">
+      <c r="E1" s="47" t="s">
         <v>120</v>
       </c>
-      <c r="F1" s="82" t="s">
+      <c r="F1" s="44" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="88">
+      <c r="C2" s="49">
         <v>77507</v>
       </c>
-      <c r="D2" s="88">
+      <c r="D2" s="49">
         <v>77507</v>
       </c>
-      <c r="E2" s="89">
+      <c r="E2" s="50">
         <v>77507</v>
       </c>
-      <c r="F2" s="76"/>
+      <c r="F2" s="42"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="63" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="90">
+      <c r="C3" s="51">
         <v>2.2284806776965791E-2</v>
       </c>
-      <c r="D3" s="90">
+      <c r="D3" s="51">
         <v>2.2284806776965791E-2</v>
       </c>
-      <c r="E3" s="91">
+      <c r="E3" s="52">
         <v>2.2284806776965791E-2</v>
       </c>
-      <c r="F3" s="76"/>
+      <c r="F3" s="42"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="43"/>
-      <c r="B4" s="40" t="s">
+      <c r="A4" s="64"/>
+      <c r="B4" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="92">
+      <c r="C4" s="53">
         <v>4.4569613553931589E-2</v>
       </c>
-      <c r="D4" s="92">
+      <c r="D4" s="53">
         <v>4.4569613553931589E-2</v>
       </c>
-      <c r="E4" s="93">
+      <c r="E4" s="54">
         <v>4.4569613553931589E-2</v>
       </c>
-      <c r="F4" s="76"/>
+      <c r="F4" s="42"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="27">
+      <c r="C5" s="23">
         <v>582</v>
       </c>
-      <c r="D5" s="27">
+      <c r="D5" s="23">
         <v>1606</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="24">
         <v>2650</v>
       </c>
-      <c r="F5" s="76"/>
+      <c r="F5" s="42"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
+      <c r="A6" s="60"/>
       <c r="B6" s="8" t="s">
         <v>61</v>
       </c>
@@ -52470,13 +52867,13 @@
       <c r="D6" s="13">
         <v>2.0720709097242829E-2</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="31">
         <v>3.4190460216496583E-2</v>
       </c>
-      <c r="F6" s="76"/>
-    </row>
-    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
+      <c r="F6" s="42"/>
+    </row>
+    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="60"/>
       <c r="B7" s="8" t="s">
         <v>62</v>
       </c>
@@ -52486,15 +52883,15 @@
       <c r="D7" s="13">
         <v>0.97927929090275723</v>
       </c>
-      <c r="E7" s="38">
+      <c r="E7" s="31">
         <v>0.96580953978350337</v>
       </c>
-      <c r="F7" s="94" t="s">
-        <v>129</v>
+      <c r="F7" s="55" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
+      <c r="A8" s="60"/>
       <c r="B8" s="7" t="s">
         <v>63</v>
       </c>
@@ -52504,13 +52901,13 @@
       <c r="D8" s="11">
         <v>75901</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="25">
         <v>74857</v>
       </c>
-      <c r="F8" s="76"/>
+      <c r="F8" s="42"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="7" t="s">
         <v>64</v>
       </c>
@@ -52520,47 +52917,47 @@
       <c r="D9" s="14">
         <v>5.0078389999999988</v>
       </c>
-      <c r="E9" s="35">
+      <c r="E9" s="28">
         <v>-12.808997</v>
       </c>
-      <c r="F9" s="76"/>
+      <c r="F9" s="42"/>
     </row>
     <row r="10" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
-      <c r="B10" s="22" t="s">
+      <c r="A10" s="61"/>
+      <c r="B10" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="36">
+      <c r="C10" s="29">
         <v>0.89893036435199991</v>
       </c>
-      <c r="D10" s="36">
+      <c r="D10" s="29">
         <v>0.80677995953900006</v>
       </c>
-      <c r="E10" s="37">
+      <c r="E10" s="30">
         <v>1.073224885933</v>
       </c>
-      <c r="F10" s="76"/>
+      <c r="F10" s="42"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="C11" s="27">
+      <c r="C11" s="23">
         <v>75205</v>
       </c>
-      <c r="D11" s="27">
+      <c r="D11" s="23">
         <v>74047</v>
       </c>
-      <c r="E11" s="28">
+      <c r="E11" s="24">
         <v>73312</v>
       </c>
-      <c r="F11" s="76"/>
+      <c r="F11" s="42"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
+      <c r="A12" s="60"/>
       <c r="B12" s="7" t="s">
         <v>68</v>
       </c>
@@ -52570,47 +52967,47 @@
       <c r="D12" s="14">
         <v>-5.662812999999999</v>
       </c>
-      <c r="E12" s="35">
+      <c r="E12" s="28">
         <v>-6.9194969999999998</v>
       </c>
-      <c r="F12" s="76"/>
+      <c r="F12" s="42"/>
     </row>
     <row r="13" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
-      <c r="B13" s="22" t="s">
+      <c r="A13" s="61"/>
+      <c r="B13" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="C13" s="36">
+      <c r="C13" s="29">
         <v>0.47451963640099998</v>
       </c>
-      <c r="D13" s="36">
+      <c r="D13" s="29">
         <v>0.32581125117100002</v>
       </c>
-      <c r="E13" s="37">
+      <c r="E13" s="30">
         <v>0.56488254921900005</v>
       </c>
-      <c r="F13" s="76"/>
+      <c r="F13" s="42"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="59" t="s">
         <v>59</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="16">
         <v>-4.0141000000000003E-2</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="16">
         <v>-3.7333999999999999E-2</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="17">
         <v>-3.8664999999999998E-2</v>
       </c>
-      <c r="F14" s="76"/>
+      <c r="F14" s="42"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
+      <c r="A15" s="60"/>
       <c r="B15" s="7" t="s">
         <v>71</v>
       </c>
@@ -52620,13 +53017,13 @@
       <c r="D15" s="12">
         <v>4.9300999999999998E-2</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="18">
         <v>4.0666000000000001E-2</v>
       </c>
-      <c r="F15" s="76"/>
+      <c r="F15" s="42"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
+      <c r="A16" s="60"/>
       <c r="B16" s="7" t="s">
         <v>72</v>
       </c>
@@ -52636,13 +53033,13 @@
       <c r="D16" s="12">
         <v>6.5978564182290076E-5</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="18">
         <v>-1.7111288189481269E-4</v>
       </c>
-      <c r="F16" s="76"/>
+      <c r="F16" s="42"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
+      <c r="A17" s="60"/>
       <c r="B17" s="7" t="s">
         <v>73</v>
       </c>
@@ -52652,13 +53049,13 @@
       <c r="D17" s="12">
         <v>0</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="18">
         <v>0</v>
       </c>
-      <c r="F17" s="76"/>
+      <c r="F17" s="42"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
+      <c r="A18" s="60"/>
       <c r="B18" s="7" t="s">
         <v>74</v>
       </c>
@@ -52668,13 +53065,13 @@
       <c r="D18" s="12">
         <v>3.2602717584520411E-3</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="18">
         <v>3.786423249946165E-3</v>
       </c>
-      <c r="F18" s="76"/>
+      <c r="F18" s="42"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
+      <c r="A19" s="60"/>
       <c r="B19" s="7" t="s">
         <v>75</v>
       </c>
@@ -52684,13 +53081,13 @@
       <c r="D19" s="12">
         <v>3.2596040814841919E-3</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E19" s="18">
         <v>3.7825548785685218E-3</v>
       </c>
-      <c r="F19" s="76"/>
+      <c r="F19" s="42"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
+      <c r="A20" s="60"/>
       <c r="B20" s="7" t="s">
         <v>76</v>
       </c>
@@ -52700,47 +53097,47 @@
       <c r="D20" s="12">
         <v>1.558394764232355E-3</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E20" s="18">
         <v>2.330789278223814E-3</v>
       </c>
-      <c r="F20" s="76"/>
+      <c r="F20" s="42"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="21"/>
-      <c r="B21" s="22" t="s">
+      <c r="A21" s="61"/>
+      <c r="B21" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="20">
         <v>2.1838698E-3</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D21" s="20">
         <v>7.9912139999999989E-4</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="21">
         <v>2.3454731999999999E-3</v>
       </c>
-      <c r="F21" s="76"/>
+      <c r="F21" s="42"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="65" t="s">
         <v>78</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="16">
         <v>-1.0232E-2</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="16">
         <v>-9.7780000000000002E-3</v>
       </c>
-      <c r="E22" s="18">
+      <c r="E22" s="17">
         <v>-1.1349E-2</v>
       </c>
-      <c r="F22" s="76"/>
+      <c r="F22" s="42"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
+      <c r="A23" s="60"/>
       <c r="B23" s="7" t="s">
         <v>80</v>
       </c>
@@ -52750,13 +53147,13 @@
       <c r="D23" s="12">
         <v>9.7800000000000005E-3</v>
       </c>
-      <c r="E23" s="20">
+      <c r="E23" s="18">
         <v>1.1342E-2</v>
       </c>
-      <c r="F23" s="76"/>
+      <c r="F23" s="42"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="19"/>
+      <c r="A24" s="60"/>
       <c r="B24" s="7" t="s">
         <v>81</v>
       </c>
@@ -52766,13 +53163,13 @@
       <c r="D24" s="12">
         <v>-7.6475927451483507E-5</v>
       </c>
-      <c r="E24" s="20">
+      <c r="E24" s="18">
         <v>-9.4384234504583147E-5</v>
       </c>
-      <c r="F24" s="76"/>
+      <c r="F24" s="42"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="19"/>
+      <c r="A25" s="60"/>
       <c r="B25" s="7" t="s">
         <v>82</v>
       </c>
@@ -52782,13 +53179,13 @@
       <c r="D25" s="12">
         <v>0</v>
       </c>
-      <c r="E25" s="20">
+      <c r="E25" s="18">
         <v>0</v>
       </c>
-      <c r="F25" s="76"/>
+      <c r="F25" s="42"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="19"/>
+      <c r="A26" s="60"/>
       <c r="B26" s="7" t="s">
         <v>83</v>
       </c>
@@ -52798,13 +53195,13 @@
       <c r="D26" s="12">
         <v>2.097632025113014E-3</v>
       </c>
-      <c r="E26" s="20">
+      <c r="E26" s="18">
         <v>2.7758215651325921E-3</v>
       </c>
-      <c r="F26" s="76"/>
+      <c r="F26" s="42"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="19"/>
+      <c r="A27" s="60"/>
       <c r="B27" s="7" t="s">
         <v>84</v>
       </c>
@@ -52814,13 +53211,13 @@
       <c r="D27" s="12">
         <v>2.0962374734986868E-3</v>
       </c>
-      <c r="E27" s="20">
+      <c r="E27" s="18">
         <v>2.7742164619459909E-3</v>
       </c>
-      <c r="F27" s="76"/>
+      <c r="F27" s="42"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="19"/>
+      <c r="A28" s="60"/>
       <c r="B28" s="7" t="s">
         <v>85</v>
       </c>
@@ -52830,111 +53227,111 @@
       <c r="D28" s="12">
         <v>1.2168947965481389E-3</v>
       </c>
-      <c r="E28" s="20">
+      <c r="E28" s="18">
         <v>2.0152541603011779E-3</v>
       </c>
-      <c r="F28" s="76"/>
+      <c r="F28" s="42"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="34"/>
-      <c r="B29" s="22" t="s">
+      <c r="A29" s="66"/>
+      <c r="B29" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="C29" s="23">
+      <c r="C29" s="20">
         <v>2.1186353999999999E-3</v>
       </c>
-      <c r="D29" s="23">
+      <c r="D29" s="20">
         <v>7.7095199999999988E-4</v>
       </c>
-      <c r="E29" s="24">
+      <c r="E29" s="21">
         <v>2.2861691999999999E-3</v>
       </c>
-      <c r="F29" s="76"/>
+      <c r="F29" s="42"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="67" t="s">
         <v>87</v>
       </c>
-      <c r="B30" s="26" t="s">
+      <c r="B30" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="27">
+      <c r="C30" s="23">
         <v>75205</v>
       </c>
-      <c r="D30" s="27">
+      <c r="D30" s="23">
         <v>74047</v>
       </c>
-      <c r="E30" s="28">
+      <c r="E30" s="24">
         <v>73312</v>
       </c>
-      <c r="F30" s="76"/>
+      <c r="F30" s="42"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="19"/>
+      <c r="A31" s="60"/>
       <c r="B31" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="C31" s="95">
+      <c r="C31" s="56">
         <v>37687</v>
       </c>
-      <c r="D31" s="95">
+      <c r="D31" s="56">
         <v>36030</v>
       </c>
-      <c r="E31" s="96">
+      <c r="E31" s="57">
         <v>35201</v>
       </c>
-      <c r="F31" s="76"/>
+      <c r="F31" s="42"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="19"/>
+      <c r="A32" s="60"/>
       <c r="B32" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="95">
+      <c r="C32" s="56">
         <v>35993</v>
       </c>
-      <c r="D32" s="95">
+      <c r="D32" s="56">
         <v>35771</v>
       </c>
-      <c r="E32" s="96">
+      <c r="E32" s="57">
         <v>35836</v>
       </c>
-      <c r="F32" s="76"/>
+      <c r="F32" s="42"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="19"/>
+      <c r="A33" s="60"/>
       <c r="B33" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C33" s="95">
+      <c r="C33" s="56">
         <v>1056</v>
       </c>
-      <c r="D33" s="95">
+      <c r="D33" s="56">
         <v>1291</v>
       </c>
-      <c r="E33" s="96">
+      <c r="E33" s="57">
         <v>633</v>
       </c>
-      <c r="F33" s="76"/>
+      <c r="F33" s="42"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="19"/>
+      <c r="A34" s="60"/>
       <c r="B34" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C34" s="95">
+      <c r="C34" s="56">
         <v>664</v>
       </c>
-      <c r="D34" s="95">
+      <c r="D34" s="56">
         <v>563</v>
       </c>
-      <c r="E34" s="96">
+      <c r="E34" s="57">
         <v>912</v>
       </c>
-      <c r="F34" s="76"/>
+      <c r="F34" s="42"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="19"/>
+      <c r="A35" s="60"/>
       <c r="B35" s="10" t="s">
         <v>93</v>
       </c>
@@ -52944,13 +53341,13 @@
       <c r="D35" s="11">
         <v>1854</v>
       </c>
-      <c r="E35" s="29">
+      <c r="E35" s="25">
         <v>1545</v>
       </c>
-      <c r="F35" s="76"/>
+      <c r="F35" s="42"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="19"/>
+      <c r="A36" s="60"/>
       <c r="B36" s="10" t="s">
         <v>94</v>
       </c>
@@ -52960,47 +53357,47 @@
       <c r="D36" s="12">
         <v>5.7554757281553402E-3</v>
       </c>
-      <c r="E36" s="20">
+      <c r="E36" s="18">
         <v>-3.8119741100323618E-3</v>
       </c>
-      <c r="F36" s="76"/>
+      <c r="F36" s="42"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="21"/>
-      <c r="B37" s="30" t="s">
+      <c r="A37" s="61"/>
+      <c r="B37" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="C37" s="23">
+      <c r="C37" s="20">
         <v>1.5399899357732699E-2</v>
       </c>
-      <c r="D37" s="23">
+      <c r="D37" s="20">
         <v>1.5043160304300709E-2</v>
       </c>
-      <c r="E37" s="24">
+      <c r="E37" s="21">
         <v>1.7733951041501491E-2</v>
       </c>
-      <c r="F37" s="76"/>
+      <c r="F37" s="42"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="31" t="s">
+      <c r="A38" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="27" t="s">
         <v>97</v>
       </c>
-      <c r="C38" s="17">
+      <c r="C38" s="16">
         <v>-3.4710000000000001E-3</v>
       </c>
-      <c r="D38" s="17">
+      <c r="D38" s="16">
         <v>-3.8769999999999998E-3</v>
       </c>
-      <c r="E38" s="18">
+      <c r="E38" s="17">
         <v>-5.1370000000000001E-3</v>
       </c>
-      <c r="F38" s="76"/>
+      <c r="F38" s="42"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="19"/>
+      <c r="A39" s="60"/>
       <c r="B39" s="7" t="s">
         <v>98</v>
       </c>
@@ -53010,13 +53407,13 @@
       <c r="D39" s="12">
         <v>-5.2899999999999996E-4</v>
       </c>
-      <c r="E39" s="20">
+      <c r="E39" s="18">
         <v>-1.6750000000000001E-3</v>
       </c>
-      <c r="F39" s="76"/>
+      <c r="F39" s="42"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="19"/>
+      <c r="A40" s="60"/>
       <c r="B40" s="7" t="s">
         <v>99</v>
       </c>
@@ -53026,13 +53423,13 @@
       <c r="D40" s="12">
         <v>5.5000000000000003E-4</v>
       </c>
-      <c r="E40" s="20">
+      <c r="E40" s="18">
         <v>1.5020000000000001E-3</v>
       </c>
-      <c r="F40" s="76"/>
+      <c r="F40" s="42"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="19"/>
+      <c r="A41" s="60"/>
       <c r="B41" s="7" t="s">
         <v>100</v>
       </c>
@@ -53042,47 +53439,47 @@
       <c r="D41" s="12">
         <v>4.3080000000000002E-3</v>
       </c>
-      <c r="E41" s="20">
+      <c r="E41" s="18">
         <v>4.2960000000000003E-3</v>
       </c>
-      <c r="F41" s="76"/>
+      <c r="F41" s="42"/>
     </row>
     <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="21"/>
-      <c r="B42" s="22" t="s">
+      <c r="A42" s="61"/>
+      <c r="B42" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="C42" s="23">
+      <c r="C42" s="20">
         <v>2.9510000000000001E-3</v>
       </c>
-      <c r="D42" s="23">
+      <c r="D42" s="20">
         <v>1.0790000000000001E-3</v>
       </c>
-      <c r="E42" s="24">
+      <c r="E42" s="21">
         <v>3.1770000000000001E-3</v>
       </c>
-      <c r="F42" s="76"/>
+      <c r="F42" s="42"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="15" t="s">
+      <c r="A43" s="62" t="s">
         <v>102</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="C43" s="17">
+      <c r="C43" s="16">
         <v>-3.1029999999999999E-3</v>
       </c>
-      <c r="D43" s="17">
+      <c r="D43" s="16">
         <v>-3.5860000000000002E-3</v>
       </c>
-      <c r="E43" s="18">
+      <c r="E43" s="17">
         <v>-4.52945E-3</v>
       </c>
-      <c r="F43" s="76"/>
+      <c r="F43" s="42"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="19"/>
+      <c r="A44" s="60"/>
       <c r="B44" s="7" t="s">
         <v>104</v>
       </c>
@@ -53092,13 +53489,13 @@
       <c r="D44" s="12">
         <v>-5.2400000000000005E-4</v>
       </c>
-      <c r="E44" s="20">
+      <c r="E44" s="18">
         <v>-1.6169999999999999E-3</v>
       </c>
-      <c r="F44" s="76"/>
+      <c r="F44" s="42"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="19"/>
+      <c r="A45" s="60"/>
       <c r="B45" s="7" t="s">
         <v>105</v>
       </c>
@@ -53108,13 +53505,13 @@
       <c r="D45" s="12">
         <v>5.1699999999999999E-4</v>
       </c>
-      <c r="E45" s="20">
+      <c r="E45" s="18">
         <v>1.4809999999999999E-3</v>
       </c>
-      <c r="F45" s="76"/>
+      <c r="F45" s="42"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="19"/>
+      <c r="A46" s="60"/>
       <c r="B46" s="7" t="s">
         <v>106</v>
       </c>
@@ -53124,47 +53521,47 @@
       <c r="D46" s="12">
         <v>3.1900000000000001E-3</v>
       </c>
-      <c r="E46" s="20">
+      <c r="E46" s="18">
         <v>3.8869999999999998E-3</v>
       </c>
-      <c r="F46" s="76"/>
+      <c r="F46" s="42"/>
     </row>
     <row r="47" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="21"/>
-      <c r="B47" s="22" t="s">
+      <c r="A47" s="61"/>
+      <c r="B47" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="C47" s="23">
+      <c r="C47" s="20">
         <v>2.8609999999999998E-3</v>
       </c>
-      <c r="D47" s="23">
+      <c r="D47" s="20">
         <v>1.041E-3</v>
       </c>
-      <c r="E47" s="24">
+      <c r="E47" s="21">
         <v>3.0980000000000001E-3</v>
       </c>
-      <c r="F47" s="76"/>
+      <c r="F47" s="42"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="31" t="s">
+      <c r="A48" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="B48" s="16" t="s">
+      <c r="B48" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="C48" s="17">
+      <c r="C48" s="16">
         <v>2.8826935326616829E-4</v>
       </c>
-      <c r="D48" s="17">
+      <c r="D48" s="16">
         <v>6.5978564182290076E-5</v>
       </c>
-      <c r="E48" s="18">
+      <c r="E48" s="17">
         <v>-1.7111288189481269E-4</v>
       </c>
-      <c r="F48" s="76"/>
+      <c r="F48" s="42"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="19"/>
+      <c r="A49" s="60"/>
       <c r="B49" s="7" t="s">
         <v>110</v>
       </c>
@@ -53174,13 +53571,13 @@
       <c r="D49" s="12">
         <v>3.2596040814841919E-3</v>
       </c>
-      <c r="E49" s="20">
+      <c r="E49" s="18">
         <v>3.7825548785685218E-3</v>
       </c>
-      <c r="F49" s="76"/>
+      <c r="F49" s="42"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="19"/>
+      <c r="A50" s="60"/>
       <c r="B50" s="7" t="s">
         <v>111</v>
       </c>
@@ -53190,13 +53587,13 @@
       <c r="D50" s="12">
         <v>7.7153051811882047</v>
       </c>
-      <c r="E50" s="20">
+      <c r="E50" s="18">
         <v>8.3433980558739549</v>
       </c>
-      <c r="F50" s="76"/>
+      <c r="F50" s="42"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="19"/>
+      <c r="A51" s="60"/>
       <c r="B51" s="7" t="s">
         <v>112</v>
       </c>
@@ -53206,13 +53603,13 @@
       <c r="D51" s="12">
         <v>3.8933813823194073E-2</v>
       </c>
-      <c r="E51" s="20">
+      <c r="E51" s="18">
         <v>4.0131817875383252E-2</v>
       </c>
-      <c r="F51" s="76"/>
+      <c r="F51" s="42"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="19"/>
+      <c r="A52" s="60"/>
       <c r="B52" s="7" t="s">
         <v>113</v>
       </c>
@@ -53222,13 +53619,13 @@
       <c r="D52" s="12">
         <v>-3.7356519841810168E-2</v>
       </c>
-      <c r="E52" s="20">
+      <c r="E52" s="18">
         <v>-3.8705401344317568E-2</v>
       </c>
-      <c r="F52" s="76"/>
+      <c r="F52" s="42"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="19"/>
+      <c r="A53" s="60"/>
       <c r="B53" s="7" t="s">
         <v>114</v>
       </c>
@@ -53238,13 +53635,13 @@
       <c r="D53" s="12">
         <v>8.830460103756016E-4</v>
       </c>
-      <c r="E53" s="20">
+      <c r="E53" s="18">
         <v>8.1700251029274973E-4</v>
       </c>
-      <c r="F53" s="76"/>
+      <c r="F53" s="42"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="19"/>
+      <c r="A54" s="60"/>
       <c r="B54" s="7" t="s">
         <v>115</v>
       </c>
@@ -53254,13 +53651,13 @@
       <c r="D54" s="12">
         <v>-0.51523187750100607</v>
       </c>
-      <c r="E54" s="20">
+      <c r="E54" s="18">
         <v>-0.55459272760525369</v>
       </c>
-      <c r="F54" s="76"/>
+      <c r="F54" s="42"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="19"/>
+      <c r="A55" s="60"/>
       <c r="B55" s="7" t="s">
         <v>116</v>
       </c>
@@ -53270,26 +53667,26 @@
       <c r="D55" s="12">
         <v>1.1863149033997069</v>
       </c>
-      <c r="E55" s="20">
+      <c r="E55" s="18">
         <v>-0.70311094006282981</v>
       </c>
-      <c r="F55" s="76"/>
+      <c r="F55" s="42"/>
     </row>
     <row r="56" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="21"/>
-      <c r="B56" s="22" t="s">
+      <c r="A56" s="61"/>
+      <c r="B56" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="C56" s="23">
+      <c r="C56" s="20">
         <v>13.387249034304959</v>
       </c>
-      <c r="D56" s="23">
+      <c r="D56" s="20">
         <v>23.317872331034241</v>
       </c>
-      <c r="E56" s="24">
+      <c r="E56" s="21">
         <v>14.82084667711066</v>
       </c>
-      <c r="F56" s="77"/>
+      <c r="F56" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="9">
